--- a/提出ドキュメント/画面設計書.xlsx
+++ b/提出ドキュメント/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="822" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="822" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="2" r:id="rId1"/>
@@ -2913,19 +2913,67 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2933,6 +2981,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2970,24 +3024,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3015,49 +3051,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3113,7 +3113,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3168,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3223,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3278,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,7 +3333,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3387,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,21 +3428,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>172689</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,13 +3458,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="1724026"/>
-          <a:ext cx="6838950" cy="4230338"/>
+          <a:off x="704850" y="1993494"/>
+          <a:ext cx="6838950" cy="3691401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3483,20 +3484,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55834</xdr:rowOff>
+      <xdr:rowOff>61649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>650240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>108485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,13 +3513,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733426" y="1522684"/>
-          <a:ext cx="7470139" cy="4468542"/>
+          <a:off x="733426" y="1528499"/>
+          <a:ext cx="7470139" cy="4456911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3550,7 +3552,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,7 +3607,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,20 +3649,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>72391</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>36021</xdr:rowOff>
+      <xdr:rowOff>47206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>645761</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>188839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3676,13 +3678,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="758191" y="1502871"/>
-          <a:ext cx="7221820" cy="4716954"/>
+          <a:off x="758191" y="1514056"/>
+          <a:ext cx="7221820" cy="4694583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3714,7 +3717,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3769,7 +3772,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4059,7 +4062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4101,93 +4104,93 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1">
       <c r="A6" s="42"/>
@@ -4198,15 +4201,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickTop="1">
       <c r="A7" s="42"/>
@@ -4234,17 +4237,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="42"/>
@@ -4272,17 +4275,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="42"/>
@@ -4295,11 +4298,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="42"/>
@@ -4310,17 +4313,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="42"/>
@@ -4333,11 +4336,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="42"/>
@@ -4348,17 +4351,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="42"/>
@@ -4371,11 +4374,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="42"/>
@@ -4386,17 +4389,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="42"/>
@@ -4409,11 +4412,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="42"/>
@@ -4424,17 +4427,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="42"/>
@@ -4462,15 +4465,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" thickTop="1">
       <c r="A21" s="42"/>
@@ -5405,10 +5408,10 @@
     </row>
     <row r="66" spans="1:15" ht="19.5" thickBot="1">
       <c r="A66" s="42"/>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="133"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -5696,6 +5699,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D5"/>
@@ -5712,20 +5729,6 @@
     <mergeCell ref="K13:O13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:O14"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5769,96 +5772,96 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
       <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1">
@@ -5870,15 +5873,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickTop="1">
@@ -5908,17 +5911,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16">
@@ -5948,17 +5951,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16">
@@ -5972,11 +5975,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16">
@@ -5988,17 +5991,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>347</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16">
@@ -6012,11 +6015,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16">
@@ -6028,17 +6031,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>316</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16">
@@ -6052,11 +6055,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16">
@@ -6068,17 +6071,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16">
@@ -6092,11 +6095,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16">
@@ -6108,17 +6111,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16">
@@ -6148,15 +6151,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickTop="1">
@@ -7255,10 +7258,10 @@
     </row>
     <row r="65" spans="1:16" ht="19.5" thickBot="1">
       <c r="A65" s="42"/>
-      <c r="B65" s="132" t="s">
+      <c r="B65" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="133"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -7545,8 +7548,818 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+    </row>
+    <row r="5" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+    </row>
+    <row r="6" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
+    </row>
+    <row r="7" spans="2:15" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="148"/>
+      <c r="K8" s="149" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="151"/>
+    </row>
+    <row r="9" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
+    </row>
+    <row r="10" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="148"/>
+      <c r="K10" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="151"/>
+    </row>
+    <row r="11" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
+    </row>
+    <row r="12" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149" t="s">
+        <v>347</v>
+      </c>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="151"/>
+    </row>
+    <row r="13" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
+    </row>
+    <row r="14" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="148"/>
+      <c r="K14" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="151"/>
+    </row>
+    <row r="15" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
+    </row>
+    <row r="16" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149">
+        <v>9</v>
+      </c>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="151"/>
+    </row>
+    <row r="17" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
+    </row>
+    <row r="18" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="148"/>
+      <c r="K18" s="149" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="151"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="28" spans="2:15" ht="19.5" thickBot="1"/>
+    <row r="29" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="2:15" ht="19.5" thickTop="1">
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="87"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="85"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="44">
+        <v>2</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="86"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="20">
+        <v>3</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="86"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="20">
+        <v>4</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="86"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="44">
+        <v>5</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30">
+        <v>1</v>
+      </c>
+      <c r="I34" s="30">
+        <v>50</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="47"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="20">
+        <v>6</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30">
+        <v>2</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="47"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="20">
+        <v>7</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="44">
+        <v>8</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30">
+        <v>3</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="47"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="20">
+        <v>9</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="20">
+        <v>10</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="47"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="44">
+        <v>11</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="47"/>
+    </row>
+    <row r="41" spans="2:15" ht="19.5" thickBot="1">
+      <c r="B41" s="20">
+        <v>12</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:O16"/>
@@ -7582,821 +8395,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
-    </row>
-    <row r="3" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-    </row>
-    <row r="5" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
-    </row>
-    <row r="6" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
-    </row>
-    <row r="7" spans="2:15" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="147" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="148"/>
-      <c r="K8" s="149" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="151"/>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
-    </row>
-    <row r="10" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="148"/>
-      <c r="K10" s="149" t="s">
-        <v>346</v>
-      </c>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="151"/>
-    </row>
-    <row r="11" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
-    </row>
-    <row r="12" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="148"/>
-      <c r="K12" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="151"/>
-    </row>
-    <row r="13" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-    </row>
-    <row r="14" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="147" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="148"/>
-      <c r="K14" s="149" t="s">
-        <v>350</v>
-      </c>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="151"/>
-    </row>
-    <row r="15" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149">
-        <v>9</v>
-      </c>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="151"/>
-    </row>
-    <row r="17" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="148"/>
-      <c r="K18" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="151"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="28" spans="2:15" ht="19.5" thickBot="1"/>
-    <row r="29" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="2:15" ht="19.5" thickTop="1">
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="85"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="44">
-        <v>2</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="86"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="20">
-        <v>3</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="86"/>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="20">
-        <v>4</v>
-      </c>
-      <c r="C33" s="88" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="86"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="44">
-        <v>5</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30">
-        <v>50</v>
-      </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="47"/>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="20">
-        <v>6</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30">
-        <v>2</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="47"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="20">
-        <v>7</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="44">
-        <v>8</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30">
-        <v>3</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="47"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="20">
-        <v>9</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="47"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="20">
-        <v>10</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="47"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="44">
-        <v>11</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="47"/>
-    </row>
-    <row r="41" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B41" s="20">
-        <v>12</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="51"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:O18"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -8430,96 +8433,96 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
       <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1">
@@ -8531,15 +8534,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickTop="1">
@@ -8569,17 +8572,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16">
@@ -8609,17 +8612,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16">
@@ -8633,11 +8636,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16">
@@ -8649,17 +8652,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>347</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16">
@@ -8673,11 +8676,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16">
@@ -8689,17 +8692,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16">
@@ -8713,11 +8716,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16">
@@ -8729,17 +8732,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16">
@@ -8753,11 +8756,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16">
@@ -8769,17 +8772,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16">
@@ -8809,15 +8812,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickTop="1">
@@ -9332,10 +9335,10 @@
     </row>
     <row r="44" spans="1:16" ht="19.5" thickBot="1">
       <c r="A44" s="42"/>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="133"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -9694,28 +9697,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="K15:O15"/>
@@ -9724,6 +9705,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9768,92 +9771,92 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
       <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1">
@@ -9865,15 +9868,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickTop="1">
@@ -9903,17 +9906,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>352</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16">
@@ -9943,17 +9946,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>353</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16">
@@ -9967,11 +9970,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16">
@@ -9983,17 +9986,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16">
@@ -10007,11 +10010,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16">
@@ -10023,17 +10026,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16">
@@ -10047,11 +10050,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16">
@@ -10063,17 +10066,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16">
@@ -10087,11 +10090,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16">
@@ -10103,17 +10106,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16">
@@ -10143,15 +10146,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickTop="1">
@@ -10992,10 +10995,10 @@
     </row>
     <row r="62" spans="1:16" ht="19.5" thickBot="1">
       <c r="A62" s="42"/>
-      <c r="B62" s="132" t="s">
+      <c r="B62" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="133"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -11300,28 +11303,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="K15:O15"/>
@@ -11330,6 +11311,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11357,90 +11360,90 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="2:15" ht="19.5" thickBot="1">
       <c r="B6" s="1"/>
@@ -11450,15 +11453,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
     </row>
     <row r="7" spans="2:15" ht="20.25" thickTop="1" thickBot="1">
       <c r="B7" s="3"/>
@@ -11542,11 +11545,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="2:15" ht="19.5" thickBot="1">
       <c r="B12" s="3"/>
@@ -11578,11 +11581,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickBot="1">
       <c r="B14" s="3"/>
@@ -11614,11 +11617,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
     </row>
     <row r="16" spans="2:15" ht="19.5" thickBot="1">
       <c r="B16" s="3"/>
@@ -11650,11 +11653,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="2:15" ht="19.5" thickBot="1">
       <c r="B18" s="3"/>
@@ -12563,34 +12566,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="H4:K5"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12603,7 +12606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -12633,93 +12636,93 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="42"/>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="117" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="123" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="105" t="s">
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="107"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="131"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="143"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="42"/>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="103"/>
+      <c r="E5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="138" t="s">
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="105" t="s">
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="108" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="110"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="128"/>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1">
       <c r="A7" s="42"/>
@@ -12730,15 +12733,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="146"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickTop="1">
       <c r="A8" s="42"/>
@@ -12766,17 +12769,17 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="101" t="s">
+      <c r="J9" s="120"/>
+      <c r="K9" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="102"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="122"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="42"/>
@@ -12804,17 +12807,17 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="104"/>
-      <c r="K11" s="101" t="s">
+      <c r="J11" s="120"/>
+      <c r="K11" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="42"/>
@@ -12827,11 +12830,11 @@
       <c r="H12" s="4"/>
       <c r="I12" s="68"/>
       <c r="J12" s="69"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="42"/>
@@ -12842,17 +12845,17 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="101" t="s">
+      <c r="J13" s="120"/>
+      <c r="K13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="42"/>
@@ -12865,11 +12868,11 @@
       <c r="H14" s="4"/>
       <c r="I14" s="68"/>
       <c r="J14" s="69"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="42"/>
@@ -12880,17 +12883,17 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="103" t="s">
+      <c r="I15" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="101" t="s">
+      <c r="J15" s="120"/>
+      <c r="K15" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="42"/>
@@ -12903,11 +12906,11 @@
       <c r="H16" s="4"/>
       <c r="I16" s="68"/>
       <c r="J16" s="69"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="42"/>
@@ -12918,17 +12921,17 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="103" t="s">
+      <c r="I17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="101">
+      <c r="J17" s="120"/>
+      <c r="K17" s="121">
         <v>9</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="42"/>
@@ -12941,11 +12944,11 @@
       <c r="H18" s="4"/>
       <c r="I18" s="68"/>
       <c r="J18" s="69"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="42"/>
@@ -12956,17 +12959,17 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="103" t="s">
+      <c r="I19" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="104"/>
-      <c r="K19" s="101" t="s">
+      <c r="J19" s="120"/>
+      <c r="K19" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="102"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="122"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="42"/>
@@ -12994,15 +12997,15 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="100"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="146"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" thickTop="1">
       <c r="A22" s="42"/>
@@ -14159,10 +14162,10 @@
     </row>
     <row r="69" spans="1:15" ht="19.5" thickBot="1">
       <c r="A69" s="42"/>
-      <c r="B69" s="132" t="s">
+      <c r="B69" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="133"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -14433,28 +14436,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:O15"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="K16:O16"/>
@@ -14463,6 +14444,28 @@
     <mergeCell ref="K18:O18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14475,7 +14478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -14488,90 +14491,90 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="2:15" ht="19.5" thickBot="1">
       <c r="B6" s="1"/>
@@ -14581,15 +14584,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
     </row>
     <row r="7" spans="2:15" ht="20.25" thickTop="1" thickBot="1">
       <c r="B7" s="3"/>
@@ -14673,11 +14676,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="2:15" ht="19.5" thickBot="1">
       <c r="B12" s="3"/>
@@ -14709,11 +14712,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
     </row>
     <row r="14" spans="2:15" ht="19.5" thickBot="1">
       <c r="B14" s="3"/>
@@ -14745,11 +14748,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
     </row>
     <row r="16" spans="2:15" ht="19.5" thickBot="1">
       <c r="B16" s="3"/>
@@ -14781,11 +14784,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="2:15" ht="19.5" thickBot="1">
       <c r="B18" s="3"/>
@@ -15934,34 +15937,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="H4:K5"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16006,96 +16009,96 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
       <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1">
@@ -16107,15 +16110,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickTop="1">
@@ -16145,17 +16148,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16">
@@ -16185,17 +16188,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16">
@@ -16209,11 +16212,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16">
@@ -16225,17 +16228,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16">
@@ -16249,11 +16252,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16">
@@ -16265,17 +16268,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16">
@@ -16289,11 +16292,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16">
@@ -16305,17 +16308,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16">
@@ -16329,11 +16332,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16">
@@ -16345,17 +16348,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16">
@@ -16385,15 +16388,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickTop="1">
@@ -17786,28 +17789,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="I16:J16"/>
@@ -17815,6 +17796,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17858,96 +17861,96 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
       <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1">
@@ -17959,15 +17962,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickTop="1">
@@ -17997,17 +18000,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16">
@@ -18037,17 +18040,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16">
@@ -18061,11 +18064,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16">
@@ -18077,17 +18080,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16">
@@ -18101,11 +18104,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16">
@@ -18117,17 +18120,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16">
@@ -18141,11 +18144,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16">
@@ -18157,17 +18160,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16">
@@ -18181,11 +18184,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16">
@@ -18197,17 +18200,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16">
@@ -18237,15 +18240,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickTop="1">
@@ -19628,28 +19631,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="I16:J16"/>
@@ -19657,6 +19638,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19701,93 +19704,93 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1">
       <c r="A6" s="42"/>
@@ -19798,15 +19801,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickTop="1">
       <c r="A7" s="42"/>
@@ -19834,17 +19837,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="42"/>
@@ -19872,17 +19875,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>262</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="42"/>
@@ -19895,11 +19898,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="42"/>
@@ -19910,17 +19913,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="42"/>
@@ -19933,11 +19936,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="42"/>
@@ -19948,17 +19951,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="42"/>
@@ -19971,11 +19974,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="42"/>
@@ -19986,17 +19989,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="42"/>
@@ -20009,11 +20012,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="42"/>
@@ -20024,17 +20027,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="42"/>
@@ -20062,15 +20065,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" thickTop="1">
       <c r="A21" s="42"/>
@@ -21280,7 +21283,1231 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:15">
+      <c r="A2" s="42"/>
+      <c r="B2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+    </row>
+    <row r="6" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" thickTop="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="57"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="42"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="42"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="42"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="42"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="42"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
+        <v>9</v>
+      </c>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="42"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="42"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="42"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="42"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="42"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="42"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+    </row>
+    <row r="28" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+    </row>
+    <row r="29" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:15" ht="19.5" thickTop="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="87"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="85"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="42"/>
+      <c r="B31" s="44">
+        <v>2</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="86"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="42"/>
+      <c r="B32" s="20">
+        <v>3</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="86"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42"/>
+      <c r="B33" s="44">
+        <v>4</v>
+      </c>
+      <c r="C33" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="86"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="42"/>
+      <c r="B34" s="20">
+        <v>5</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="86"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="42"/>
+      <c r="B35" s="44">
+        <v>6</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="60"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="42"/>
+      <c r="B36" s="20">
+        <v>7</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="47"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="42"/>
+      <c r="B37" s="44">
+        <v>8</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="30">
+        <v>4</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="47"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="42"/>
+      <c r="B38" s="20">
+        <v>9</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="42"/>
+      <c r="B39" s="44">
+        <v>10</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="30">
+        <v>50</v>
+      </c>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="47"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="42"/>
+      <c r="B40" s="20">
+        <v>11</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="47"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="42"/>
+      <c r="B41" s="44">
+        <v>12</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="30">
+        <v>4</v>
+      </c>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="47"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="42"/>
+      <c r="B42" s="20">
+        <v>13</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="47"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="42"/>
+      <c r="B43" s="44">
+        <v>14</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="30">
+        <v>1</v>
+      </c>
+      <c r="I43" s="30">
+        <v>4</v>
+      </c>
+      <c r="J43" s="45"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="47"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="42"/>
+      <c r="B44" s="20">
+        <v>15</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30">
+        <v>2</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="47"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="42"/>
+      <c r="B45" s="44">
+        <v>16</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30">
+        <v>3</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="47"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="42"/>
+      <c r="B46" s="20">
+        <v>17</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30">
+        <v>4</v>
+      </c>
+      <c r="I46" s="30">
+        <v>50</v>
+      </c>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="47"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="42"/>
+      <c r="B47" s="44">
+        <v>18</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30">
+        <v>5</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="47"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="42"/>
+      <c r="B48" s="20">
+        <v>19</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="47"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="42"/>
+      <c r="B49" s="44">
+        <v>20</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="47"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="42"/>
+      <c r="B50" s="20">
+        <v>21</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30">
+        <v>6</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="47"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="42"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="47"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="42"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="74"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="44"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="47"/>
+    </row>
+    <row r="54" spans="1:15" ht="19.5" thickBot="1">
+      <c r="B54" s="76"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="K15:O15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:O16"/>
@@ -21309,1230 +22536,6 @@
     <mergeCell ref="H4:K5"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L5:O5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1"/>
-    <row r="2" spans="1:15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
-    </row>
-    <row r="6" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.5" thickTop="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
-        <v>9</v>
-      </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="42"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="42"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-    </row>
-    <row r="28" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-    </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:15" ht="19.5" thickTop="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="85"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="44">
-        <v>2</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="86"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="20">
-        <v>3</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="86"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="44">
-        <v>4</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="86"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="20">
-        <v>5</v>
-      </c>
-      <c r="C34" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="86"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44">
-        <v>6</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="60"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="20">
-        <v>7</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44">
-        <v>8</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="30">
-        <v>4</v>
-      </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="47"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="20">
-        <v>9</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="47"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44">
-        <v>10</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="30">
-        <v>50</v>
-      </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="47"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="20">
-        <v>11</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="47"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44">
-        <v>12</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="30">
-        <v>4</v>
-      </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="47"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="20">
-        <v>13</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="47"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44">
-        <v>14</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="30">
-        <v>1</v>
-      </c>
-      <c r="I43" s="30">
-        <v>4</v>
-      </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="47"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="20">
-        <v>15</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30">
-        <v>2</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="47"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44">
-        <v>16</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30">
-        <v>3</v>
-      </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="20">
-        <v>17</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30">
-        <v>4</v>
-      </c>
-      <c r="I46" s="30">
-        <v>50</v>
-      </c>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="47"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="44">
-        <v>18</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30">
-        <v>5</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="47"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="20">
-        <v>19</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="47"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="44">
-        <v>20</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="47"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="20">
-        <v>21</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30">
-        <v>6</v>
-      </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="47"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="47"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="74"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="B53" s="44"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="47"/>
-    </row>
-    <row r="54" spans="1:15" ht="19.5" thickBot="1">
-      <c r="B54" s="76"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22576,96 +22579,96 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="42"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="117" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="105" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="107"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
       <c r="A3" s="42"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="42"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="138" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1">
       <c r="A5" s="42"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="108" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
       <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1">
@@ -22677,15 +22680,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="146"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickTop="1">
@@ -22715,17 +22718,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16">
@@ -22755,17 +22758,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="101" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16">
@@ -22779,11 +22782,11 @@
       <c r="H11" s="4"/>
       <c r="I11" s="68"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:16">
@@ -22795,17 +22798,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="104"/>
-      <c r="K12" s="101" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="1:16">
@@ -22819,11 +22822,11 @@
       <c r="H13" s="4"/>
       <c r="I13" s="68"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16">
@@ -22835,17 +22838,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122"/>
       <c r="P14" s="43"/>
     </row>
     <row r="15" spans="1:16">
@@ -22859,11 +22862,11 @@
       <c r="H15" s="4"/>
       <c r="I15" s="68"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122"/>
       <c r="P15" s="43"/>
     </row>
     <row r="16" spans="1:16">
@@ -22875,17 +22878,17 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="103" t="s">
+      <c r="I16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="101">
+      <c r="J16" s="120"/>
+      <c r="K16" s="121">
         <v>9</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122"/>
       <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16">
@@ -22899,11 +22902,11 @@
       <c r="H17" s="4"/>
       <c r="I17" s="68"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122"/>
       <c r="P17" s="43"/>
     </row>
     <row r="18" spans="1:16">
@@ -22915,17 +22918,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16">
@@ -22955,15 +22958,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="146"/>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickTop="1">
@@ -23506,10 +23509,10 @@
     </row>
     <row r="45" spans="1:16" ht="19.5" thickBot="1">
       <c r="A45" s="42"/>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="133"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -23796,28 +23799,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="K15:O15"/>
@@ -23826,6 +23807,28 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
